--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -33,25 +33,174 @@
     <t>备注</t>
   </si>
   <si>
+    <t>日期：2018.10.08 第六周周一</t>
+  </si>
+  <si>
+    <t>1、熟悉APP手机端UI设计；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余舒章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余舒章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许俊杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许俊杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞森杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞森杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善pc端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善android端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善android端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分配到的用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分配到的用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改及完善用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论并设计er图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、熟悉需求规格说明书；2、确定pc端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：总体已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：计划是先各编写一部分用例规约，再在一起讨论哪一位组员的哪一部分做得好，其他组员再模仿好的修改完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：计划是先各编写一部分用例规约，再在一起讨论哪一位组员的哪一部分做得好，其他组员再模仿好的修改完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：总体已完成，最后放弃分开为PC端与Android端，把PC端与Android端的用例完善成一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：错误预估界面设计的工作量，导致界面设计还有过多未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
-  </si>
-  <si>
-    <t>日期：2018.10.08 第六周周一</t>
-  </si>
-  <si>
-    <t>1、熟悉需求规格说明书；2、确定pc端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉APP手机端UI设计；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -59,22 +208,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用百度地图api进行安卓端设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写完善数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>余舒章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>余舒章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王嘉宇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王嘉宇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>许俊杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,79 +248,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>庞森杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞森杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完善pc端用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完善android端用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完善android端用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计安卓端界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写分配到的用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写分配到的用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.10 第六周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.11 第六周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改及完善用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计安卓端界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论并设计er图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.17 第七周周三</t>
+    <t>编写完善数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写完善数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用安卓原生代码、百度地图api进行安卓端前端设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用mybatis进行框架搭建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,14 +358,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,12 +682,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -592,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -600,49 +705,49 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -653,26 +758,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -690,49 +795,49 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -743,26 +848,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -780,49 +885,49 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -833,26 +938,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -870,49 +975,49 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -923,26 +1028,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -960,49 +1065,49 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1013,26 +1118,26 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1050,49 +1155,49 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1103,21 +1208,279 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1130,6 +1493,12 @@
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -260,7 +260,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用mybatis进行框架搭建</t>
+    <t>使用springmvc、mybatis进行框架搭建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -256,11 +256,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用安卓原生代码、百度地图api进行安卓端前端设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用springmvc、mybatis进行框架搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用安卓原生代码、百度地图sdk进行安卓端前端设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -358,14 +358,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -682,12 +682,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -758,26 +758,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -848,26 +848,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -938,26 +938,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1028,26 +1028,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1118,26 +1118,26 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1208,26 +1208,26 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1298,26 +1298,26 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
@@ -1376,26 +1376,26 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -1440,7 +1440,7 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>54</v>
@@ -1452,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>53</v>
@@ -1466,21 +1466,27 @@
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1493,12 +1499,6 @@
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>使用安卓原生代码、百度地图sdk进行安卓端前端设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -358,14 +362,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -682,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -758,26 +762,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -848,26 +852,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -938,26 +942,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1028,26 +1032,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1118,26 +1122,26 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1208,26 +1212,26 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1298,26 +1302,26 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
@@ -1376,26 +1380,26 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -1466,27 +1470,109 @@
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A75:D75"/>
+  <mergeCells count="20">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D92"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1499,6 +1585,12 @@
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -362,14 +362,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +675,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:D84"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -686,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -762,26 +762,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -852,26 +852,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -942,26 +942,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1032,26 +1032,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1122,26 +1122,26 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1212,26 +1212,26 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1302,26 +1302,26 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
@@ -1380,26 +1380,26 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -1470,26 +1470,26 @@
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -1512,9 +1512,7 @@
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -1524,9 +1522,7 @@
       <c r="B87" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1556,21 +1552,25 @@
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D92"/>
     <mergeCell ref="A48:D48"/>
@@ -1587,10 +1587,6 @@
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="A82:D83"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -265,6 +265,14 @@
   </si>
   <si>
     <t>日期：2018.10.25 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29 第九周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -362,14 +370,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -686,12 +694,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -762,26 +770,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -852,26 +860,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -942,26 +950,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1032,26 +1040,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1122,26 +1130,26 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1212,26 +1220,26 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1302,26 +1310,26 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
@@ -1380,26 +1388,26 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -1470,26 +1478,26 @@
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -1512,7 +1520,9 @@
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -1522,7 +1532,9 @@
       <c r="B87" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1532,7 +1544,9 @@
       <c r="B88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -1542,7 +1556,9 @@
       <c r="B89" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -1552,27 +1568,195 @@
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A75:D75"/>
+  <mergeCells count="24">
+    <mergeCell ref="A109:D110"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A102:D102"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1587,6 +1771,10 @@
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="A82:D83"/>
     <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第12组/12项目计划表.xlsx
+++ b/第12组/12项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="69">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写pc前端界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1749,14 +1761,198 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A102:D102"/>
+  <mergeCells count="28">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
@@ -1769,12 +1965,12 @@
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A102:D102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
